--- a/top_25_gdp.xlsx
+++ b/top_25_gdp.xlsx
@@ -14,9 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
 </sst>
 </file>
@@ -374,139 +452,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>23315080560000</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>4940877780755.33</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>4259934911821.64</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>3131377762925.95</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>2957879759263.52</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>2107702842669.73</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>1988336331717.42</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>1810955871380.98</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>1552667363236.06</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>1427380681294.55</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>1012846760976.73</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>833541236569.3149</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>800640155387.26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>679444832854.295</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
         <v>635663801201.765</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>594104177539.525</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>504182603275.542</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>488526545878.891</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>482174854481.956</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>480368403893.364</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>415021590683.006</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>398303272764.46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>396986899888.351</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>369176400967.427</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>317058508651.76</v>
       </c>
     </row>
